--- a/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
+++ b/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
@@ -114,9 +114,6 @@
     <t>DATE AT</t>
   </si>
   <si>
-    <t>WORKING HOUR</t>
-  </si>
-  <si>
     <t>TASK NAME</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>TIMESHEET OF USER IN PROJECT</t>
+  </si>
+  <si>
+    <t>MAN DAY</t>
   </si>
 </sst>
 </file>
@@ -488,6 +488,27 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -507,27 +528,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,7 +829,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="InvoiceDetails4" displayName="InvoiceDetails4" ref="B3:E4" insertRow="1">
   <tableColumns count="4">
     <tableColumn id="1" name="DATE AT" dataDxfId="3"/>
-    <tableColumn id="6" name="WORKING HOUR" dataDxfId="2"/>
+    <tableColumn id="6" name="MAN DAY" dataDxfId="2"/>
     <tableColumn id="5" name="TASK NAME" dataDxfId="1"/>
     <tableColumn id="2" name="NOTE" dataDxfId="0"/>
   </tableColumns>
@@ -1071,7 +1071,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H15" sqref="B14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1101,17 +1101,17 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:11" ht="24" customHeight="1">
-      <c r="B3" s="51">
+      <c r="B3" s="44">
         <v>44015</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="56">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="49">
         <f>InvoiceTotal</f>
         <v>0</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1123,53 +1123,53 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1">
@@ -1273,8 +1273,8 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="49">
+      <c r="F19" s="54"/>
+      <c r="G19" s="56">
         <f>0</f>
         <v>0</v>
       </c>
@@ -1284,8 +1284,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="22" spans="2:10" ht="15">
       <c r="B22" s="31" t="s">
@@ -1306,29 +1306,29 @@
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="2:10" ht="27" customHeight="1">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
       <c r="J24" s="34"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F3:G4"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -1344,7 +1344,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1359,7 +1359,7 @@
     <row r="1" spans="2:6" ht="30.75" customHeight="1"/>
     <row r="2" spans="2:6" ht="35.25" customHeight="1">
       <c r="B2" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -1370,13 +1370,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="3"/>
     </row>

--- a/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
+++ b/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
@@ -34,6 +34,7 @@
     <definedName name="CompanySetup_YourName">INDEX(#REF!,MATCH("Your Name",#REF!,0))</definedName>
     <definedName name="CompanySetup_YourPhone">INDEX(#REF!,MATCH("Phone",#REF!,0))</definedName>
     <definedName name="CompanySetup_YourURL">INDEX(#REF!,MATCH("Website",#REF!,0))</definedName>
+    <definedName name="CurrencyInvoiceTotal" localSheetId="0">Invoice!$G$3</definedName>
     <definedName name="CurrencyTotal" localSheetId="0">Invoice!$F$19</definedName>
     <definedName name="DiaChiKhachHang" localSheetId="0">Invoice!$F$7</definedName>
     <definedName name="DiaChiKhachHang">Invoice!$F$7</definedName>
@@ -52,14 +53,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>NCCPLUS VIET NAM JOINT STOCK COMPANY</t>
   </si>
   <si>
@@ -111,19 +109,19 @@
     <t>WORKING TIME</t>
   </si>
   <si>
+    <t>TIMESHEET OF USER IN PROJECT</t>
+  </si>
+  <si>
     <t>DATE AT</t>
   </si>
   <si>
+    <t>MAN DAY</t>
+  </si>
+  <si>
     <t>TASK NAME</t>
   </si>
   <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t>TIMESHEET OF USER IN PROJECT</t>
-  </si>
-  <si>
-    <t>MAN DAY</t>
   </si>
 </sst>
 </file>
@@ -135,11 +133,11 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="General;;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;;"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00;;\-"/>
-    <numFmt numFmtId="169" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;;\-"/>
+    <numFmt numFmtId="168" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00;;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="8"/>
       <color theme="3"/>
@@ -256,6 +254,13 @@
     <font>
       <sz val="7"/>
       <color rgb="FF473530"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="4"/>
       <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,62 +415,77 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -473,20 +493,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -494,23 +526,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -524,13 +541,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,7 +584,7 @@
         <name val="Verdana"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00;;"/>
+      <numFmt numFmtId="169" formatCode="#,##0.00;;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -609,7 +626,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="[$-1010000]d/m/yyyy;@"/>
+      <numFmt numFmtId="168" formatCode="[$-1010000]d/m/yyyy;@"/>
       <alignment horizontal="left" vertical="center" indent="1"/>
     </dxf>
     <dxf>
@@ -620,7 +637,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00;;"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -630,6 +647,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -639,6 +657,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
@@ -657,7 +676,7 @@
         <name val="Verdana"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00;;"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -826,7 +845,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="InvoiceDetails4" displayName="InvoiceDetails4" ref="B3:E4" insertRow="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InvoiceDetails4" displayName="InvoiceDetails4" ref="B3:E4" insertRow="1">
   <tableColumns count="4">
     <tableColumn id="1" name="DATE AT" dataDxfId="3"/>
     <tableColumn id="6" name="MAN DAY" dataDxfId="2"/>
@@ -1071,7 +1090,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="B14:H15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1082,15 +1101,15 @@
     <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="20" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27" customHeight="1"/>
-    <row r="2" spans="2:11" ht="43.5" customHeight="1">
+    <row r="2" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1099,77 +1118,78 @@
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" ht="24" customHeight="1">
-      <c r="B3" s="44">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="24" customHeight="1" thickTop="1">
+      <c r="B3" s="53">
         <v>44015</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="49">
-        <f>InvoiceTotal</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="45" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="47" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="52" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1">
@@ -1186,15 +1206,17 @@
       <c r="E11" s="8"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:11" ht="6" customHeight="1">
+    <row r="12" spans="2:11" ht="6" customHeight="1" thickBot="1">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickTop="1">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1202,133 +1224,143 @@
     </row>
     <row r="14" spans="2:11" ht="15">
       <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="27">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="35">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="27">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="35">
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="56">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" thickBot="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
-    </row>
+      <c r="F20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickTop="1"/>
     <row r="22" spans="2:10" ht="15">
-      <c r="B22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:10" ht="15">
-      <c r="B23" s="36"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:10" ht="27" customHeight="1">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="J24" s="34"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
-    <mergeCell ref="B24:G24"/>
+  <mergeCells count="16">
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F3:G4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -1341,63 +1373,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="36" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30.75" customHeight="1"/>
-    <row r="2" spans="2:6" ht="35.25" customHeight="1">
-      <c r="B2" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="2:6" s="40" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="2:6" ht="27">
+      <c r="B2" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="2:6" s="37" customFormat="1" ht="15">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" s="40" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="41"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+    <row r="4" spans="2:6" s="37" customFormat="1" ht="14.25">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" ht="8.25" customHeight="1" thickBot="1">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+    <row r="5" spans="2:6" ht="11.25" thickBot="1">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="2:6" ht="11.25" thickTop="1">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1405,9 +1436,8 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
+++ b/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
@@ -360,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,12 +514,15 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -532,9 +535,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -552,6 +552,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1093,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F7" sqref="F7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1103,7 +1106,8 @@
     <col min="6" max="6" width="19.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="20" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1122,16 +1126,16 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:11" ht="24" customHeight="1" thickTop="1">
-      <c r="B3" s="53">
+      <c r="B3" s="54">
         <v>44015</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="49"/>
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="49"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
       <c r="B4" s="6" t="s">
@@ -1143,54 +1147,59 @@
       <c r="F4" s="50"/>
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
-      <c r="I4" s="50"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="51" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="52" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1">
       <c r="B10" s="9"/>
@@ -1344,7 +1353,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="16">
+  <mergeCells count="15">
+    <mergeCell ref="F7:I9"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
@@ -1352,12 +1362,10 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>

--- a/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
+++ b/aspnet-core/src/ProjectManagement.Web.Host/wwwroot/template/InvoiceForTax.xlsx
@@ -554,7 +554,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,7 +1093,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:I9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
